--- a/Costos y Tiempos.xlsx
+++ b/Costos y Tiempos.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Documents\ITLA\Cuatrimestre 5 Septiembre 2021\Programacion III\Documentos realizados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Documents\ITLA\Cuatrimestre 5 Septiembre 2021\Programacion III\Documentos realizados\Proyecto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB0416C-40AE-4CCE-9135-28383604CE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA69622-77E3-4D0F-85A1-58A05C4C0475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52B89472-6179-4A24-9DDE-F2BAF6AEE4D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WBS (WORK BREAKDOWN STRUCTURE)" sheetId="1" r:id="rId1"/>
-    <sheet name="CBS (COST BREAKDOWN STRUCTURE)" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
+    <sheet name="WBS (WORK BREAKDOWN STRUCTURE)" sheetId="1" r:id="rId2"/>
+    <sheet name="CBS (COST BREAKDOWN STRUCTURE)" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$A$4:$B$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$C$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$D$7:$E$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$F$6</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$F$7:$F$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$A$4:$B$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$C$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'CBS (COST BREAKDOWN STRUCTURE)'!$C$4:$C$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>Entregables</t>
   </si>
@@ -52,9 +64,6 @@
     <t>Analisis / Diseño del Software</t>
   </si>
   <si>
-    <t>Diagramas de Base Datos/Clases</t>
-  </si>
-  <si>
     <t>Desarrollo del Software</t>
   </si>
   <si>
@@ -70,15 +79,6 @@
     <t>Documentación de Usuario</t>
   </si>
   <si>
-    <t>Entrenamiento de Usuario</t>
-  </si>
-  <si>
-    <t>TABLA DE CONVERSION SP - HORAS</t>
-  </si>
-  <si>
-    <t>Valor SP</t>
-  </si>
-  <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
@@ -103,18 +103,9 @@
     <t>GDR</t>
   </si>
   <si>
-    <t>ANALISTA</t>
-  </si>
-  <si>
-    <t>ANL</t>
-  </si>
-  <si>
     <t>RECURSOS HUMANOS</t>
   </si>
   <si>
-    <t>ANL, GDR</t>
-  </si>
-  <si>
     <t>MANO DE OBRA</t>
   </si>
   <si>
@@ -142,36 +133,15 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Valor Dias</t>
-  </si>
-  <si>
-    <t>TARIFA X DIAS (RD$)</t>
-  </si>
-  <si>
-    <t>Duracion (Dias)</t>
-  </si>
-  <si>
     <t>2 PERSONAS</t>
   </si>
   <si>
-    <t>5 dias</t>
-  </si>
-  <si>
-    <t>6 dias</t>
-  </si>
-  <si>
     <t>3 PERSONAS</t>
   </si>
   <si>
-    <t>55 dias</t>
-  </si>
-  <si>
     <t>DJR,GDR</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Concepto</t>
   </si>
   <si>
@@ -179,17 +149,135 @@
   </si>
   <si>
     <t>Costos</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Implementacion de JWT para seg.</t>
+  </si>
+  <si>
+    <t>Estructura de base de datos</t>
+  </si>
+  <si>
+    <t>Estructuracion de diagramas UML</t>
+  </si>
+  <si>
+    <t>Implementacion de controladores</t>
+  </si>
+  <si>
+    <t>Implementacion de Entity framework</t>
+  </si>
+  <si>
+    <t>Envio de notifición (Correo Electrónico)</t>
+  </si>
+  <si>
+    <t>TARIFA X HORAS (USD$)</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t>Manejo de navegacion entre pantallas</t>
+  </si>
+  <si>
+    <t>http requests (Conexión con el back end)</t>
+  </si>
+  <si>
+    <t>Planeación de desarrollo</t>
+  </si>
+  <si>
+    <t>DJR,GDR, DSR</t>
+  </si>
+  <si>
+    <t>1 PERSONA</t>
+  </si>
+  <si>
+    <t>DJR, GDR</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>2.2.6</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>WBS (WORK BREAKDOWN STRUCTURE)</t>
+  </si>
+  <si>
+    <t>Entregable</t>
+  </si>
+  <si>
+    <t>Cantidad Horas por día</t>
+  </si>
+  <si>
+    <t>Cantidad de dias</t>
+  </si>
+  <si>
+    <t>Total horas:</t>
+  </si>
+  <si>
+    <t>Total Horas</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Horas por días</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_([$$-1C0A]* #,##0.00_);_([$$-1C0A]* \(#,##0.00\);_([$$-1C0A]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-1C0A]* #,##0.00_);_([$$-1C0A]* \(#,##0.00\);_([$$-1C0A]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +301,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,18 +347,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,15 +416,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -296,34 +456,211 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="8"/>
       </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -336,51 +673,1883 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CBS (COST BREAKDOWN STRUCTURE)'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Costos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'CBS (COST BREAKDOWN STRUCTURE)'!$A$4:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>MANO DE OBRA</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>MANO DE OBRA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MANO DE OBRA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>LICENCIAS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SERVIDORES</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>DJR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>DSR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GDR</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>MS SQL SERVER 2016 R2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>AWS EC2 (VIRTUALES)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CBS (COST BREAKDOWN STRUCTURE)'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>857.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1979-49B2-A7EC-A89DA192F583}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="442598736"/>
+        <c:axId val="442599152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="442598736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442599152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442599152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442598736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Códigos y distribución total</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Códigos y distribución total</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{B44CE508-D8D2-4A49-9D33-35D421449F98}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Costos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13772</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC843F6E-77A0-441A-A802-7A5FE55F80C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E3C0C48-D114-4A9C-9450-5DD34F436322}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8543923" y="0"/>
+              <a:ext cx="7734302" cy="4772025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1279406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891AE579-E52F-470C-93E4-10327797FCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="0"/>
+          <a:ext cx="2428875" cy="1279406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C0D50D-6012-4FAF-9B00-ECB9515AA46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="0"/>
+          <a:ext cx="2314575" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1820334</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1414992</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D840DEA7-6364-4242-9E36-4848141E8374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1820334" y="0"/>
+          <a:ext cx="2314575" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{768318CC-BE4E-48F4-A495-761FBC739192}" name="Table2" displayName="Table2" ref="A3:D12" totalsRowShown="0">
-  <autoFilter ref="A3:D12" xr:uid="{768318CC-BE4E-48F4-A495-761FBC739192}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{768318CC-BE4E-48F4-A495-761FBC739192}" name="Table2" displayName="Table2" ref="B3:E21" totalsRowShown="0" tableBorderDxfId="10">
+  <autoFilter ref="B3:E21" xr:uid="{768318CC-BE4E-48F4-A495-761FBC739192}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{030CBD2D-6A1F-4F8A-8697-BBF969E5BF69}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{030CBD2D-6A1F-4F8A-8697-BBF969E5BF69}" name="ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{7394D55D-A854-4667-AA3D-092077FF37B7}" name="Entregables"/>
-    <tableColumn id="3" xr3:uid="{C1E8157C-382C-4749-9CA0-705C591C5DAC}" name="Duracion (Dias)"/>
+    <tableColumn id="3" xr3:uid="{C1E8157C-382C-4749-9CA0-705C591C5DAC}" name="Horas" dataDxfId="8">
+      <calculatedColumnFormula>SUM(D5)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{9D35011C-3528-47AD-91AF-11552F1A8A7C}" name="Recurso"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E8F11629-9D85-47AF-B22F-107587AAB1F6}" name="Table3" displayName="Table3" ref="F3:G8" totalsRowShown="0">
-  <autoFilter ref="F3:G8" xr:uid="{E8F11629-9D85-47AF-B22F-107587AAB1F6}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2448E96B-A90B-4780-B447-76CA13225881}" name="TABLA DE CONVERSION SP - HORAS"/>
-    <tableColumn id="2" xr3:uid="{452902E1-4030-4BC6-9165-3A0A32CFDE25}" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B40D513C-E0B2-4486-98F6-BC4C07701F82}" name="Table4" displayName="Table4" ref="G3:J6" totalsRowShown="0" tableBorderDxfId="7">
+  <autoFilter ref="G3:J6" xr:uid="{B40D513C-E0B2-4486-98F6-BC4C07701F82}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FCF072FD-2203-4B4C-AE99-B26F658439FC}" name="DESCRIPCION"/>
+    <tableColumn id="2" xr3:uid="{E5D64556-AA72-4610-89AE-8346B55C6353}" name="TARIFA X HORAS (USD$)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9B2E284B-EC21-4BEF-8A9E-2E9F4D94942C}" name="CODIGO"/>
+    <tableColumn id="4" xr3:uid="{F0243C0B-5894-43FB-9222-E0C7F66A84D5}" name="Total Horas"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B40D513C-E0B2-4486-98F6-BC4C07701F82}" name="Table4" displayName="Table4" ref="I4:K8" totalsRowShown="0">
-  <autoFilter ref="I4:K8" xr:uid="{B40D513C-E0B2-4486-98F6-BC4C07701F82}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D43CB23-E9B8-44FB-837E-31A74263D172}" name="Table1" displayName="Table1" ref="G9:I13" totalsRowShown="0" tableBorderDxfId="5">
+  <autoFilter ref="G9:I13" xr:uid="{3D43CB23-E9B8-44FB-837E-31A74263D172}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FCF072FD-2203-4B4C-AE99-B26F658439FC}" name="DESCRIPCION"/>
-    <tableColumn id="2" xr3:uid="{E5D64556-AA72-4610-89AE-8346B55C6353}" name="TARIFA X DIAS (RD$)"/>
-    <tableColumn id="3" xr3:uid="{9B2E284B-EC21-4BEF-8A9E-2E9F4D94942C}" name="CODIGO"/>
+    <tableColumn id="1" xr3:uid="{1525BC46-C08E-4E39-98A4-B89586D93358}" name="Entregable"/>
+    <tableColumn id="2" xr3:uid="{992A6915-B69B-4542-A172-02CAB8812E6B}" name="Cantidad Horas por día"/>
+    <tableColumn id="3" xr3:uid="{05CF2347-2FAF-457B-8566-0025E23F6FEB}" name="Cantidad de dias"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{222AD5E9-494D-446C-81AF-4C4112D06668}" name="Table7" displayName="Table7" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{222AD5E9-494D-446C-81AF-4C4112D06668}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{222AD5E9-494D-446C-81AF-4C4112D06668}" name="Table7" displayName="Table7" ref="A3:C8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:C8" xr:uid="{222AD5E9-494D-446C-81AF-4C4112D06668}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4859B724-77E8-4EC1-B0C8-AAE9D9FFD078}" name="Descripcion"/>
-    <tableColumn id="2" xr3:uid="{4D079073-57B9-4C43-85C1-2B3A338814DD}" name="Concepto"/>
-    <tableColumn id="3" xr3:uid="{9D831075-293A-4148-8D2D-A8B137FF0732}" name="Costos"/>
+    <tableColumn id="1" xr3:uid="{4859B724-77E8-4EC1-B0C8-AAE9D9FFD078}" name="Descripcion" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4D079073-57B9-4C43-85C1-2B3A338814DD}" name="Concepto" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9D831075-293A-4148-8D2D-A8B137FF0732}" name="Costos" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -680,407 +2849,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F47A55-997D-480F-90DC-2E5369092346}">
-  <dimension ref="A3:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E883C73-3360-4759-A878-A4F849BDD86E}">
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="23" width="9.140625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="23" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="23" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" style="23" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="23" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" s="23" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F47A55-997D-480F-90DC-2E5369092346}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="23" customFormat="1" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4" si="0">SUM(D5)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <f>(H10*I10)+(H11*I11)+(H13*I13)</f>
+        <v>24.5</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f>(H10*I10)+(H12*I12)</f>
+        <v>48</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D7+D12</f>
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <f>(H10*I10)+(H11*I11)+(H13*I13)</f>
+        <v>24.5</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(D8:D11)</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>C4</f>
+        <v>Analisis / Diseño del Software</v>
+      </c>
+      <c r="H10" s="1">
+        <f>D4</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>C7</f>
+        <v>Desarrollo del frontEnd</v>
+      </c>
+      <c r="H11" s="1">
+        <f>((D7)/2)/10</f>
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(D13:D18)</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>Table2[[#This Row],[Entregables]]</f>
+        <v>Desarrollo del Backend</v>
+      </c>
+      <c r="H12" s="5">
+        <f>D12/14</f>
+        <v>3.2142857142857144</v>
+      </c>
+      <c r="I12" s="1">
+        <v>14</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>C19</f>
+        <v>Capacitación</v>
+      </c>
+      <c r="H13" s="1">
+        <f>(D19/2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(D20:D20)</f>
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>1500</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>3500</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="26">
+        <f>SUM(D4,D6,D19)</f>
+        <v>91</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>1100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3.1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3.2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="22" spans="2:11" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:K3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E384A9E4-13E6-46FC-8E3D-FF01FEFD90E6}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" hidden="1"/>
+    <col min="5" max="5" width="16.7109375" hidden="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="1"/>
+    <col min="7" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
+    <row r="1" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13">
+        <f>'WBS (WORK BREAKDOWN STRUCTURE)'!J4*'WBS (WORK BREAKDOWN STRUCTURE)'!H4</f>
+        <v>857.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13">
+        <f>'WBS (WORK BREAKDOWN STRUCTURE)'!J5*'WBS (WORK BREAKDOWN STRUCTURE)'!H5</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'WBS (WORK BREAKDOWN STRUCTURE)'!J6*'WBS (WORK BREAKDOWN STRUCTURE)'!H6</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
+        <f>SUM(C4:C8)</f>
+        <v>6317.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20">
+        <f>(SUM(C4:C6))*0.05</f>
+        <v>187.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="21">
+        <f>C9+C10</f>
+        <v>6505.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <f>32*'WBS (WORK BREAKDOWN STRUCTURE)'!J8</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <f>'WBS (WORK BREAKDOWN STRUCTURE)'!C8*'WBS (WORK BREAKDOWN STRUCTURE)'!J5</f>
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <f>106*'WBS (WORK BREAKDOWN STRUCTURE)'!J6</f>
-        <v>371000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <f>4*'WBS (WORK BREAKDOWN STRUCTURE)'!J7</f>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5">
-        <f>SUM(C2:C7)</f>
-        <v>701900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <f>(SUM(C2:C5))*0.05</f>
-        <v>22095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6">
-        <f>C11/54.7</f>
-        <v>13235.740402193784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
-        <f>C8+C9</f>
-        <v>723995</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20">
+        <f>C11*56.45</f>
+        <v>367214.30625000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>